--- a/Documentação/Sprint 3/UC09_Efectuar_Candidatura/UC9_TestScenario.xlsx
+++ b/Documentação/Sprint 3/UC09_Efectuar_Candidatura/UC9_TestScenario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23808"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{904CEE35-25E1-4026-8914-E4B082A98F5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5869681-4E74-402E-91F0-CB7DC9826A42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
   <si>
     <t>Project Name</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Created By</t>
   </si>
   <si>
+    <t xml:space="preserve">Ana Batista </t>
+  </si>
+  <si>
     <t>Creation Date</t>
   </si>
   <si>
@@ -84,19 +87,92 @@
     <t>Test Case Description</t>
   </si>
   <si>
+    <t>1. O freelancer deve estar registado na plataforma 
+2. O freelancer deve ter login válido
+3. Devem existir tarefas publicadas em período de candidatura
+4. O freelancer deve ter grau de proficiencia igual ou superior ao mínimo especificado para as competências técnicas obrigatórias</t>
+  </si>
+  <si>
     <t>Test Case Steps</t>
   </si>
   <si>
+    <t>1. O freelancer faz login na plataforma
+2.O freelancer consulta a lista de tarefas publicadas
+3. O freelancer candidata-se a uma das tarefas, para a qual tem as competências técnicas necessárias</t>
+  </si>
+  <si>
+    <t>1. O freelancer faz login na plataforma
+2.O freelancer consulta a lista de tarefas publicadas
+3. Não existem tarefas publicadas</t>
+  </si>
+  <si>
+    <t>1. O freelancer faz login na plataforma</t>
+  </si>
+  <si>
     <t>Preconditions</t>
   </si>
   <si>
     <t>Test Data</t>
   </si>
   <si>
+    <t>1. Login Válido
+2. Lista com 3 tarefas publicadas
+3.Freelancer tem grau de proficiência igual ou superior ao mínimo necessário para as competências técnicas obrigatórias</t>
+  </si>
+  <si>
+    <t>1. Login Válido
+2. Lista com 3 tarefas publicadas
+3.Freelancer não tem grau de proficiência igual ou superior ao mínimo necessário para as competências técnicas obrigatórias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login Válido
+2. Lista com 0 tarefas publicadas
+</t>
+  </si>
+  <si>
+    <t>1. Login Inválido:
+   1.1. email válido
+   1.2. password inválida</t>
+  </si>
+  <si>
+    <t>1. Login Inválido
+    1.1 Email inválido</t>
+  </si>
+  <si>
     <t>Post Conditions</t>
   </si>
   <si>
+    <t>Message: "Candidatura efectuada com sucesso"</t>
+  </si>
+  <si>
+    <t>Message: "Candidatura Inválida. Grau de proficiência insuficiente para a tarefa"</t>
+  </si>
+  <si>
+    <t>Message: "Não existem tarefas publicadas"</t>
+  </si>
+  <si>
+    <t>Message: "Login inválido. Passwor Incorreta!!"</t>
+  </si>
+  <si>
+    <t>Message: "Utilizador não registado na plataforma"</t>
+  </si>
+  <si>
     <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Candidatura efectuada com sucesso</t>
+  </si>
+  <si>
+    <t>Popup: "Candidatura Inválida. Grau de proficiência insuficiente para a tarefa"</t>
+  </si>
+  <si>
+    <t>Popup: "Não existem tarefas publicadas"</t>
+  </si>
+  <si>
+    <t>Popup: "Login inválido. Passwor Incorreta!!"</t>
+  </si>
+  <si>
+    <t>Popup: "Utilizador não registado na plataforma"</t>
   </si>
   <si>
     <t>Actual Result</t>
@@ -216,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -225,6 +301,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -274,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -289,6 +373,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95"/>
@@ -703,44 +789,48 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44239</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -748,22 +838,22 @@
     </row>
     <row r="9" spans="1:9" ht="31.5">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -771,151 +861,200 @@
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="162.75" customHeight="1">
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="195.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="209.25" customHeight="1">
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="174.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="17.100000000000001">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="15.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="110.25">
       <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="15.75">
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="47.25">
       <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" ht="15.75">
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="47.25">
       <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="17.100000000000001">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -960,211 +1099,211 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="8" spans="1:5" ht="17.100000000000001">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33.950000000000003">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.100000000000001">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="51">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="33.950000000000003">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="33.950000000000003">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="33.950000000000003">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="51">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="51">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5" ht="17.100000000000001">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1209,59 +1348,59 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="8" spans="1:5" ht="17.100000000000001">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1269,7 +1408,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1277,7 +1416,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1285,7 +1424,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1293,7 +1432,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1301,7 +1440,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1309,7 +1448,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1317,12 +1456,12 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1330,17 +1469,17 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
